--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BioDroid\Desktop\schedule git\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\schedule git\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Visual Studio Code</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>portofilo</t>
+  </si>
+  <si>
+    <t>Front</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
                   <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,167 +2087,172 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
+      <c r="A10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
@@ -3183,7 +3191,7 @@
       </c>
       <c r="F2">
         <f>SUM(Scheduling!G:G,Scheduling!G1)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2">
         <f>SUM(Scheduling!H:H,Scheduling!H1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2056,6 +2056,9 @@
       <c r="F5" s="3">
         <v>60</v>
       </c>
+      <c r="H5" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -2069,6 +2072,9 @@
       <c r="F7" s="3">
         <v>160</v>
       </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2077,6 +2083,9 @@
       <c r="F8" s="3">
         <v>60</v>
       </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -2092,6 +2101,9 @@
       </c>
       <c r="G10" s="3">
         <v>120</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -3195,7 +3207,7 @@
       </c>
       <c r="G2">
         <f>SUM(Scheduling!H:H,Scheduling!H1)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H2">
         <f>SUM(Scheduling!I:I,Scheduling!I1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>450</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:AG269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2073,7 @@
         <v>160</v>
       </c>
       <c r="H7" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="G2">
         <f>SUM(Scheduling!H:H,Scheduling!H1)</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H2">
         <f>SUM(Scheduling!I:I,Scheduling!I1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>510</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:AG269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,6 +2063,9 @@
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="H6" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -3207,7 +3210,7 @@
       </c>
       <c r="G2">
         <f>SUM(Scheduling!H:H,Scheduling!H1)</f>
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="H2">
         <f>SUM(Scheduling!I:I,Scheduling!I1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>BDD</t>
   </si>
   <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>Front</t>
+  </si>
+  <si>
+    <t>C# oop</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
                   <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,108 +1929,108 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -2043,12 +2043,12 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>90</v>
@@ -2059,10 +2059,13 @@
       <c r="H5" s="3">
         <v>80</v>
       </c>
+      <c r="I5" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3">
         <v>35</v>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3">
         <v>160</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>60</v>
@@ -2092,15 +2095,18 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3">
         <v>30</v>
       </c>
+      <c r="I9" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="3">
         <v>120</v>
@@ -2111,17 +2117,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -2136,27 +2142,27 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -2176,12 +2182,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -2191,82 +2197,82 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,54 +2994,54 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3220,7 @@
       </c>
       <c r="H2">
         <f>SUM(Scheduling!I:I,Scheduling!I1)</f>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="I2">
         <f>SUM(Scheduling!J:J,Scheduling!J1)</f>
@@ -3335,18 +3341,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="23040" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -516,6 +516,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -668,7 +669,7 @@
                   <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -872,6 +873,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1914,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,6 +2064,9 @@
       <c r="I5" s="3">
         <v>30</v>
       </c>
+      <c r="J5" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -2102,6 +2107,9 @@
       </c>
       <c r="I9" s="3">
         <v>400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -3053,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AF2"/>
     </sheetView>
   </sheetViews>
@@ -3224,7 +3232,7 @@
       </c>
       <c r="I2">
         <f>SUM(Scheduling!J:J,Scheduling!J1)</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="J2">
         <f>SUM(Scheduling!K:K,Scheduling!K1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="23040" windowHeight="9180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
                   <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,6 +2067,9 @@
       <c r="J5" s="3">
         <v>60</v>
       </c>
+      <c r="K5" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -2109,6 +2112,9 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
     </row>
@@ -3061,7 +3067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AF2"/>
     </sheetView>
   </sheetViews>
@@ -3236,7 +3242,7 @@
       </c>
       <c r="J2">
         <f>SUM(Scheduling!K:K,Scheduling!K1)</f>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="K2">
         <f>SUM(Scheduling!L:L,Scheduling!L1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Visual Studio Code</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>C# oop</t>
+  </si>
+  <si>
+    <t>end of lesson 2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +374,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,13 +406,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -414,8 +429,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent6" xfId="3" builtinId="49"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -516,7 +540,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -678,7 +701,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,7 +896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1917,7 +1939,7 @@
   <dimension ref="A1:AG269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,221 +2059,234 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>90</v>
       </c>
       <c r="F3" s="3">
         <v>60</v>
       </c>
+      <c r="H3" s="3">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F4" s="3">
+        <v>160</v>
+      </c>
+      <c r="H4" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3">
-        <v>80</v>
-      </c>
-      <c r="I5" s="3">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3">
-        <v>60</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="3">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="12">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>120</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -2982,7 +3017,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,6 +3025,7 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3013,6 +3049,9 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -3024,6 +3063,9 @@
       <c r="C3" t="s">
         <v>81</v>
       </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3035,6 +3077,9 @@
       <c r="C4" t="s">
         <v>78</v>
       </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -3046,6 +3091,9 @@
       <c r="C5" t="s">
         <v>79</v>
       </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -3055,6 +3103,9 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3067,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AF2"/>
     </sheetView>
   </sheetViews>
@@ -3250,7 +3301,7 @@
       </c>
       <c r="L2">
         <f>SUM(Scheduling!M:M,Scheduling!M1)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M2">
         <f>SUM(Scheduling!N:N,Scheduling!N1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>Visual Studio Code</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise </t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:AG269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,162 +2173,167 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
+      <c r="A12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
@@ -3305,7 +3313,7 @@
       </c>
       <c r="M2">
         <f>SUM(Scheduling!N:N,Scheduling!N1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <f>SUM(Scheduling!O:O,Scheduling!O1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>Front</t>
   </si>
   <si>
-    <t>C# oop</t>
-  </si>
-  <si>
     <t>end of lesson 2</t>
   </si>
   <si>
@@ -302,7 +299,10 @@
     <t xml:space="preserve">1 hour </t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise </t>
+    <t xml:space="preserve">Exercise Soprt machen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# oop findemental </t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,6 +2082,9 @@
       <c r="K3" s="3">
         <v>45</v>
       </c>
+      <c r="N3" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -2119,6 +2122,9 @@
       <c r="M6" s="12">
         <v>120</v>
       </c>
+      <c r="N6" s="12">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2133,7 +2139,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3">
         <v>30</v>
@@ -2146,6 +2152,9 @@
       </c>
       <c r="K8" s="3">
         <v>300</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -2174,65 +2183,71 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -3058,7 +3073,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,7 +3087,7 @@
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,7 +3101,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,7 +3115,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,7 +3328,7 @@
       </c>
       <c r="M2">
         <f>SUM(Scheduling!N:N,Scheduling!N1)</f>
-        <v>20</v>
+        <v>470</v>
       </c>
       <c r="N2">
         <f>SUM(Scheduling!O:O,Scheduling!O1)</f>

--- a/Mehdi.xlsx
+++ b/Mehdi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Visual Studio Code</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t xml:space="preserve">C# oop findemental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC net  </t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>470</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1942,7 +1945,7 @@
   <dimension ref="A1:AG269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,13 +2091,16 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3">
         <v>160</v>
       </c>
       <c r="H4" s="3">
         <v>120</v>
+      </c>
+      <c r="N4" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -3328,7 +3334,7 @@
       </c>
       <c r="M2">
         <f>SUM(Scheduling!N:N,Scheduling!N1)</f>
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="N2">
         <f>SUM(Scheduling!O:O,Scheduling!O1)</f>
